--- a/inputs/backup/Monthly.xlsx
+++ b/inputs/backup/Monthly.xlsx
@@ -13,10 +13,278 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="85">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>sodate</t>
+  </si>
+  <si>
+    <t>podate</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>origincity</t>
+  </si>
+  <si>
+    <t>origincountry</t>
+  </si>
+  <si>
+    <t>destinationcity</t>
+  </si>
+  <si>
+    <t>destinationcountry</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>forwarder</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>bknumber</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>cntr</t>
+  </si>
+  <si>
+    <t>Tons</t>
+  </si>
+  <si>
+    <t>Tonsact</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>margin</t>
+  </si>
+  <si>
+    <t>marginEUR</t>
+  </si>
+  <si>
+    <t>ETD</t>
+  </si>
+  <si>
+    <t>ETA</t>
+  </si>
+  <si>
+    <t>shipinstr</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>equip</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>21-2122-xx1</t>
+  </si>
+  <si>
+    <t>21-0001-001</t>
+  </si>
+  <si>
+    <t>02.12.2021</t>
+  </si>
+  <si>
+    <t>18.01.2022</t>
+  </si>
+  <si>
+    <t>14.12.2021</t>
+  </si>
+  <si>
+    <t>09.12.2021</t>
+  </si>
+  <si>
+    <t>Adiprima</t>
+  </si>
+  <si>
+    <t>Eco Baltija</t>
+  </si>
+  <si>
+    <t>Metalnevases</t>
+  </si>
+  <si>
+    <t>Almadar</t>
+  </si>
+  <si>
+    <t>Panasa Ecuador</t>
+  </si>
+  <si>
+    <t>Repapers</t>
+  </si>
+  <si>
+    <t>Corinto</t>
+  </si>
+  <si>
+    <t>Acajutla</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Vostochniy</t>
+  </si>
+  <si>
+    <t>Guayaquil</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Maersk</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Sealand</t>
+  </si>
+  <si>
+    <t>342123</t>
+  </si>
+  <si>
+    <t>1qweqew</t>
+  </si>
+  <si>
+    <t>534534</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>1.01 - Mixed paper and board</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>279.00</t>
+  </si>
+  <si>
+    <t>277.00</t>
+  </si>
+  <si>
+    <t>-52.43</t>
+  </si>
+  <si>
+    <t>18.15</t>
+  </si>
+  <si>
+    <t>247.17</t>
+  </si>
+  <si>
+    <t>245.7</t>
+  </si>
+  <si>
+    <t>-45.9</t>
+  </si>
+  <si>
+    <t>15.89</t>
+  </si>
+  <si>
+    <t>15.12.2021</t>
+  </si>
+  <si>
+    <t>16.12.2021</t>
+  </si>
+  <si>
+    <t>17.12.2021</t>
+  </si>
+  <si>
+    <t>13.11.2021</t>
+  </si>
+  <si>
+    <t>31.12.2021</t>
+  </si>
+  <si>
+    <t>01.01.0001</t>
+  </si>
+  <si>
+    <t>13.12.2021</t>
+  </si>
+  <si>
+    <t>15.01.2022</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>12w</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>40'DC</t>
+  </si>
+  <si>
+    <t>40'HC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +308,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +626,621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" t="s">
+        <v>68</v>
+      </c>
+      <c r="X6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W7" t="s">
+        <v>69</v>
+      </c>
+      <c r="X7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>